--- a/ResultsPrediction/quotesnai10.xlsx
+++ b/ResultsPrediction/quotesnai10.xlsx
@@ -25,10 +25,10 @@
     <t>AwayWin</t>
   </si>
   <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>Trasferta</t>
+    <t>HomeTeam</t>
+  </si>
+  <si>
+    <t>AwayTeam</t>
   </si>
   <si>
     <t>Sampdoria</t>
@@ -477,10 +477,10 @@
         <v>4.5</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="D2">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -494,13 +494,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D3">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -514,13 +514,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="D4">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -534,13 +534,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D5">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -554,13 +554,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="C6">
         <v>4.75</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -574,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D7">
         <v>3.35</v>
@@ -594,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D8">
         <v>4.25</v>
@@ -614,13 +614,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D9">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -634,13 +634,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -654,13 +654,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="C11">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
